--- a/knowledge_base.xlsx
+++ b/knowledge_base.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1956,6 +1956,428 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ARC_20251231162940_8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-31T16:29:40.317404</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>im making website where user can book vendors or sday astrologer , calll booking and chatbooking call we can use in app 3rd part services , notification and all admin paneel also included give complete architecture for this</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t># 📋 Executive Summary
+This architecture proposes a scalable, event-driven microservices platform for booking astrologers/vendors, featuring real-time chat, in-app calls via third-party services, and a comprehensive admin panel. By leveraging modern cloud-native technologies and a robust data strategy, the system is designed for high availability, performance, and future growth, drawing inspiration from marketplace and real-time communication platforms.
+---
+# 🏗️ System Architecture
+## High-Level Design
+The system employs a microservices architecture to ensure scalability, fault isolation, and independent deployment. Frontend applications (web, mobile) interact with an API Gateway, which routes requests to various backend services. An Event Bus facilitates asynchronous communication, enabling decoupled services and real-time features like notifications. Third-party services are integrated for critical functionalities such as payments, calls, and emails.
+-   **Frontend Applications:** User-facing interfaces (Web, Mobile) for booking, chat, and calls.
+-   **API Gateway:** Single entry point for all client requests, handles authentication, rate limiting, and request routing.
+-   **Microservices:** Independent services responsible for specific business domains (User, Vendor, Booking, Chat, Call, Payment, Notification, Search, Admin).
+-   **Event Bus (Kafka):** Enables asynchronous, event-driven communication between microservices, crucial for notifications and state synchronization.
+-   **Databases:** Polyglot persistence with specialized databases for different data types (relational, key-value, document, search).
+-   **Cache:** Distributed caching for performance optimization.
+-   **Third-Party Services:** Integrations for calls (Twilio), payments (Stripe), and emails (SendGrid).
+-   **Admin Panel:** Dedicated interface for managing users, vendors, content, and system configurations.
+```
++------------------+     +------------------+
+|   User (Web/App) |     | Vendor (Web/App) |
++--------+---------+     +--------+---------+
+         |                        |
+         v                        v
++---------------------------------+---------------------------------+
+|                                 API Gateway                       |
+| (Authentication, Rate Limiting, Routing, WAF)                     |
++---------------------------------+---------------------------------+
+         |                                 |
+         v                                 v
++-------------------------------------------------------------------+
+|                            Microservices Layer                    |
++-------------------------------------------------------------------+
+|  +--------------+   +--------------+   +--------------+   +--------------+ |
+|  | User Service |&lt;-&gt;| Vendor Svc   |&lt;-&gt;| Booking Svc  |&lt;-&gt;| Payment Svc  | |
+|  +------+-------+   +------+-------+   +------+-------+   +------+-------+ |
+|         |                  |                  |                  |         |
+|         v                  v                  v                  v         |
+|  +--------------+   +--------------+   +--------------+   +--------------+ |
+|  | Chat Service |&lt;-&gt;| Call Service |&lt;-&gt;| Notif. Svc   |&lt;-&gt;| Search Svc   | |
+|  +------+-------+   +------+-------+   +------+-------+   +------+-------+ |
+|         |                  |                  |                  |         |
++-------------------------------------------------------------------+
+         |                                 |
+         v                                 v
++-------------------------------------------------------------------+
+|                           Data Layer                              |
++-------------------------------------------------------------------+
+|  +----------+   +----------+   +----------+   +----------+   +----------+ |
+|  | PostgreSQL |   | Cassandra |   | Redis    |   | ElasticS |   | S3       | |
+|  |(Users,Vnds)|   |(Chat Msgs)|   |(Cache,Sess)|   |(Vendors) |   |(Media)   | |
+|  +----------+   +----------+   +----------+   +----------+   +----------+ |
++-------------------------------------------------------------------+
+         |                                 |
+         v                                 v
++-------------------------------------------------------------------+
+|                       Event Bus (Apache Kafka)                    |
++-------------------------------------------------------------------+
+         |                                 |
+         v                                 v
++-------------------------------------------------------------------+
+|                       Third-Party Integrations                    |
++-------------------------------------------------------------------+
+|  +----------+   +----------+   +----------+   +----------+   +----------+ |
+|  | Twilio   |   | Stripe   |   | SendGrid |   | CDN      |   | Admin    | |
+|  |(Calls,SMS)|   |(Payments)|   |(Emails)  |   |(Static)  |   |(Panel UI)| |
+|  +----------+   +----------+   +----------+   +----------+   +----------+ |
+```
+## Technology Stack
+| Layer | Technology | Why |
+|-------|------------|-----|
+| Frontend | **React.js (Web)**, **Next.js (SSR)**, **React Native (Mobile)** | React for rich UI components; Next.js for Server-Side Rendering (SEO, initial load performance) and API routes; React Native for native mobile experience, leveraging shared codebase. |
+| Backend | **Go (for Chat/Call/Notification Services)**, **Java/Spring Boot (for User/Vendor/Booking/Payment/Admin Services)** | Go offers excellent concurrency and performance for real-time, I/O-bound services. Java/Spring Boot provides a mature ecosystem, robust frameworks, and strong community support for complex business logic and enterprise-grade reliability. |
+| API Gateway | **AWS API Gateway** | Managed service for easy setup, scaling, security (WAF, rate limiting), and integration with AWS Lambda/EC2 for backend services. Alternatively, **Envoy Proxy** or **Nginx** for self-hosted. |
+| Database | **PostgreSQL** | Primary relational database for core business data (users, vendors, bookings, transactions). Known for ACID compliance, extensibility, and strong community. |
+| | **Apache Cassandra** | For high-volume, time-series data like chat messages. Offers linear scalability, high availability, and excellent write throughput for chat history. |
+| | **Elasticsearch** | For powerful, real-time search capabilities for vendors. Provides full-text search, filtering, and geo-spatial queries. |
+| Cache | **Redis** | In-memory data store for caching frequently accessed data (vendor profiles, availability, user sessions), rate limiting, and real-time leaderboards. |
+| Message Queue | **Apache Kafka** | Distributed streaming platform for asynchronous communication, event sourcing, notification triggers, and data ingestion for analytics. Ensures reliable, high-throughput message delivery. |
+| Cloud Provider | **AWS** | Comprehensive suite of services (EC2, RDS, S3, Lambda, SQS/SNS/Kafka, EKS) for compute, storage, database, messaging, and serverless functions, offering high scalability and reliability. |
+| 3rd Party | **Twilio** | For in-app voice/video calls (WebRTC integration) and SMS notifications. Provides robust APIs for communication features. |
+| | **Stripe** | Secure and compliant payment processing for bookings and vendor payouts. Handles credit card processing, subscriptions, and payouts with ease. |
+| | **SendGrid** | Reliable email delivery service for transactional emails (booking confirmations, password resets) and marketing communications. |
+| Monitoring | **Prometheus &amp; Grafana** | Open-source monitoring and alerting toolkit for system metrics, and Grafana for powerful visualization and dashboards. |
+| Logging | **ELK Stack (Elasticsearch, Logstash, Kibana)** | Centralized logging solution for aggregating, searching, and visualizing logs from all services. |
+---
+# 🔧 Core Components
+## Component 1: User Service
+**Purpose:** Manages user registration, profiles, authentication, and authorization.
+**Key Features:**
+-   **User Registration &amp; Login:** Email/password, social logins (Google, Facebook).
+-   **Profile Management:** User details, saved preferences, booking history.
+-   **Authentication (AuthN) &amp; Authorization (AuthZ):** JWT-based tokens for API access, role-based access control (RBAC) for user/vendor/admin roles.
+-   **Password Management:** Reset, change password functionality.
+**Implementation Notes:**
+-   Utilize **Spring Security** (Java) or **Auth0/Firebase Auth** for robust authentication.
+-   Hash passwords using **Bcrypt** or **Argon2** with appropriate salt.
+-   Implement **Rate Limiting** on login attempts to prevent brute-force attacks (e.g., 5 attempts/min per IP).
+## Component 2: Vendor Service
+**Purpose:** Manages vendor profiles, services, availability, and pricing.
+**Key Features:**
+-   **Vendor Registration &amp; Onboarding:** Profile creation, service listing, verification process.
+-   **Service Management:** Define services (e.g., 30-min call, 1-hour chat), pricing, categories.
+-   **Availability Calendar:** Manage time slots, block dates, recurring availability.
+-   **Rating &amp; Reviews:** Store and aggregate user ratings and reviews for vendors.
+**Implementation Notes:**
+-   Store availability as time slots in the database, potentially denormalized for quick lookup in Redis.
+-   Implement a workflow for vendor verification, possibly involving manual admin approval or automated checks.
+-   Use **Elasticsearch** for efficient indexing and searching of vendor profiles and services.
+## Component 3: Booking Service
+**Purpose:** Handles the entire booking lifecycle, from creation to completion and cancellation.
+**Key Features:**
+-   **Booking Creation:** Reserve time slots, calculate total price, initiate payment.
+-   **Booking Status Management:** Pending, Confirmed, Completed, Cancelled.
+-   **Payment Integration:** Interface with the Payment Service for transaction processing.
+-   **Conflict Resolution:** Handle concurrent booking attempts for the same slot.
+**Implementation Notes:**
+-   Implement a **Saga Pattern** or distributed transactions (e.g., using Kafka and idempotent consumers) for booking and payment, ensuring atomicity across services.
+-   Use pessimistic locking or optimistic locking with versioning for critical sections like availability updates to prevent double bookings.
+-   Emit **Booking Events** (e.g., `BookingInitiated`, `BookingConfirmed`, `BookingCancelled`) to Kafka for other services (Notification, Payment, Vendor) to react to.
+## Component 4: Chat Service
+**Purpose:** Provides real-time, persistent messaging between users and vendors.
+**Key Features:**
+-   **Real-time Messaging:** Bidirectional communication using WebSockets.
+-   **Message Persistence:** Store chat history for future reference.
+-   **Typing Indicators &amp; Read Receipts:** Enhance user experience.
+-   **Media Sharing:** Ability to send images/files (future enhancement).
+**Implementation Notes:**
+-   Built with **Go** leveraging its strong concurrency model for WebSocket connections.
+-   Use **Apache Cassandra** as the primary datastore for chat messages due to its high write throughput and horizontal scalability. Schema: `(chat_session_id, message_timestamp, sender_id, message_content)`.
+-   Implement a **WebSocket Gateway** (e.g., using Gorilla WebSocket library in Go) for managing connections and message routing.
+## Component 5: Call Service
+**Purpose:** Facilitates in-app voice/video calls between users and vendors using a third-party provider.
+**Key Features:**
+-   **Call Initiation &amp; Termination:** APIs to start and end calls.
+-   **Call Session Management:** Track active calls, participants.
+-   **Integration with Twilio:** Leverage Twilio's Programmable Voice/Video for WebRTC-based calls.
+**Implementation Notes:**
+-   This service acts as an orchestration layer, primarily interacting with **Twilio's APIs** to generate tokens, manage rooms, and relay events.
+-   Focus on security by ensuring Twilio tokens are short-lived and generated server-side.
+-   Handle call status updates (e.g., `CallStarted`, `CallEnded`) by emitting events to Kafka, which can trigger notifications.
+## Component 6: Notification Service
+**Purpose:** Delivers timely notifications to users and vendors via various channels.
+**Key Features:**
+-   **Multi-channel Notifications:** Email (SendGrid), SMS (Twilio), Push Notifications (Firebase Cloud Messaging/AWS SNS).
+-   **Event-driven Triggers:** Reacts to events from other services (e.g., `BookingConfirmed`, `CallStarted`, `NewChatMessage`).
+-   **Notification Templates:** Customizable templates for different notification types.
+**Implementation Notes:**
+-   Subscribe to relevant Kafka topics (e.g., `booking-events`, `chat-events`, `call-events`).
+-   Use a dedicated worker pool for sending notifications to avoid blocking core services.
+-   Implement exponential backoff and retry mechanisms for third-party API calls (Twilio, SendGrid, FCM).
+## Component 7: Payment Service
+**Purpose:** Manages all payment-related operations, including booking payments and vendor payouts.
+**Key Features:**
+-   **Payment Processing:** Integrate with **Stripe** for accepting credit card payments.
+-   **Refund Management:** Process refunds for cancelled bookings.
+-   **Vendor Payouts:** Facilitate scheduled payouts to vendors (e.g., weekly, bi-weekly) via Stripe Connect.
+-   **Transaction History:** Maintain a secure record of all financial transactions.
+**Implementation Notes:**
+-   Ensure PCI DSS compliance by offloading sensitive card data directly to Stripe via their SDKs.
+-   Use **Stripe Webhooks** to asynchronously receive updates on payment status, refunds, and payout events, and process them idempotently.
+-   Implement robust error handling and reconciliation processes for payment failures.
+## Component 8: Search &amp; Discovery Service
+**Purpose:** Enables users to find vendors based on various criteria.
+**Key Features:**
+-   **Full-text Search:** Search by vendor name, service description, location.
+-   **Filtering &amp; Sorting:** Filter by category, price range, rating, availability.
+-   **Geo-spatial Search:** Find vendors near a specific location.
+-   **Personalized Recommendations (Future):** Suggest vendors based on user history.
+**Implementation Notes:**
+-   Built on **Elasticsearch** for its powerful indexing and query capabilities.
+-   Data for Elasticsearch is populated from the Vendor Service via Kafka events (e.g., `VendorProfileUpdated`, `ServiceAdded`).
+-   Implement query suggestions and auto-completion for an improved user experience.
+## Component 9: Admin Service
+**Purpose:** Provides a dedicated interface for platform administrators to manage the system.
+**Key Features:**
+-   **User &amp; Vendor Management:** View, edit, activate/deactivate users/vendors.
+-   **Booking &amp; Transaction Oversight:** Monitor bookings, review payment statuses.
+-   **Content Moderation:** Manage reviews, reported issues.
+-   **Configuration Management:** Adjust system settings, pricing rules.
+-   **Analytics &amp; Reporting:** Dashboards for key metrics (bookings, revenue, active users).
+**Implementation Notes:**
+-   A separate frontend application (e.g., React Admin) backed by dedicated APIs in the Admin Service.
+-   Implement strong authentication and granular authorization for admin users.
+-   Log all admin actions for auditing purposes.
+---
+# 💾 Data Design
+## Database Schema
+**PostgreSQL (Relational Data):**
+-   **`users` table:**
+    -   `id` (PK, UUID)
+    -   `email` (UNIQUE, INDEX)
+    -   `password_hash`
+    -   `first_name`, `last_name`
+    -   `phone_number`
+    -   `role` (ENUM: 'user', 'vendor', 'admin')
+    -   `created_at`, `updated_at`
+-   **`vendors` table:**
+    -   `id` (PK, UUID)
+    -   `user_id` (FK to `users.id`, UNIQUE, INDEX)
+    -   `bio`, `profile_picture_url`
+    -   `location` (geo-point for search)
+    -   `avg_rating`, `review_count`
+    -   `is_verified` (BOOLEAN)
+    -   `created_at`, `updated_at`
+-   **`services` table:**
+    -   `id` (PK, UUID)
+    -   `vendor_id` (FK to `vendors.id`, INDEX)
+    -   `name` (e.g., '30-min astrology call')
+    -   `description`
+    -   `duration_minutes`
+    -   `price_amount`, `price_currency`
+    -   `created_at`, `updated_at`
+-   **`vendor_availability` table:**
+    -   `id` (PK, UUID)
+    -   `vendor_id` (FK to `vendors.id`, INDEX)
+    -   `start_time` (TIMESTAMP WITH TIME ZONE, INDEX)
+    -   `end_time` (TIMESTAMP WITH TIME ZONE, INDEX)
+    -   `is_booked` (BOOLEAN, default FALSE)
+-   **`bookings` table:**
+    -   `id` (PK, UUID)
+    -   `user_id` (FK to `users.id`, INDEX)
+    -   `vendor_id` (FK to `vendors.id`, INDEX)
+    -   `service_id` (FK to `services.id`)
+    -   `booked_slot_start`, `booked_slot_end` (TIMESTAMP WITH TIME ZONE, INDEX)
+    -   `total_price_amount`, `total_price_currency`
+    -   `status` (ENUM: 'pending', 'confirmed', 'completed', 'cancelled', 'refunded', INDEX)
+    -   `payment_id` (FK to `payments.id`, UNIQUE)
+    -   `created_at`, `updated_at`
+-   **`payments` table:**
+    -   `id` (PK, UUID)
+    -   `booking_id` (FK to `bookings.id`, UNIQUE, INDEX)
+    -   `stripe_charge_id` (UNIQUE)
+    -   `amount`, `currency`
+    -   `status` (ENUM: 'initiated', 'succeeded', 'failed', 'refunded')
+    -   `created_at`, `updated_at`
+-   **`reviews` table:**
+    -   `id` (PK, UUID)
+    -   `booking_id` (FK to `bookings.id`, UNIQUE, INDEX)
+    -   `user_id` (FK to `users.id`, INDEX)
+    -   `vendor_id` (FK to `vendors.id`, INDEX)
+    -   `rating` (INTEGER, 1-5)
+    -   `comment`
+    -   `created_at`
+**Apache Cassandra (Chat Messages):**
+-   **`chat_messages` table:**
+    -   `chat_session_id` (PK, UUID, partition key)
+    -   `message_timestamp` (PK, TIMESTAMP, clustering key)
+    -   `sender_id` (UUID)
+    -   `receiver_id` (UUID)
+    -   `message_content` (TEXT)
+    -   `status` (ENUM: 'sent', 'delivered', 'read')
+    -   `media_url` (TEXT, optional)
+    -   `ttl` (INT, for ephemeral messages if desired)
+-   **Indexing Strategy:**
+    -   **PostgreSQL:** B-tree indexes on foreign keys (`user_id`, `vendor_id`, `booking_id`, `service_id`), `email`, `status`, `start_time`, `end_time` for efficient joins and filtering. Partial indexes on `is_booked=FALSE` for availability.
+    -   **Cassandra:** Primary key `(chat_session_id, message_timestamp)` ensures efficient retrieval of messages within a session, ordered by time. No secondary indexes needed for typical chat access patterns (fetch messages for a session).
+    -   **Elasticsearch:** Automatically indexes text fields for full-text search. Custom mappings for `location` (geo_point) and `avg_rating` (numeric) for geo-spatial and range queries.
+## Caching Strategy
+-   **What to Cache:**
+    -   **Vendor Profiles &amp; Services:** Frequently accessed vendor details, descriptions, and service offerings.
+    -   **Vendor Availability (Upcoming):** Pre-fetched or frequently requested availability slots for popular vendors.
+    -   **Search Results:** Cache results for common search queries or filters.
+    -   **User Sessions:** JWT tokens or user preferences.
+    -   **Rate Limiting Counters:** Store API call counts per user/IP.
+-   **TTL Recommendations (Redis):**
+    -   **Vendor Profiles/Services:** 15-30 minutes. Invalidate on update (e.g., via Kafka event from Vendor Service).
+    -   **Vendor Availability:** 5-10 minutes, or invalidate immediately upon booking/cancellation.
+    -   **Search Results:** 5-15 minutes, depending on the staleness tolerance.
+    -   **User Sessions:** Configured based on session timeout (e.g., 1 hour, refreshed on activity).
+    -   **Rate Limiting:** Short TTLs aligned with the rate limit window (e.g., 60 seconds).
+-   **Implementation:** Use **Redis Cache-Aside pattern**. Services first check Redis, if not found, query the database, then store in Redis.
+---
+# 📊 Scalability
+## Capacity Planning
+-   **Expected QPS (Queries Per Second):**
+    -   **Initial Phase (MVP):** ~500-1,000 QPS (peak) for read operations (vendor search, profile view) and ~50-100 QPS for write operations (bookings, chat messages).
+    -   **Growth Projection (1 year):** Scaling to 5,000-10,000 QPS (peak) for reads, and 500-1,000 QPS for writes. This assumes a user base growth to hundreds of thousands or millions.
+    -   **Real-time Connections (Chat/Call):** Anticipate 10,000-50,000 concurrent WebSocket connections for chat, and 1,000-5,000 concurrent call participants.
+-   **Storage Needs:**
+    -   **PostgreSQL:** 1-2 TB for core relational data (users, vendors, bookings, reviews) over 1-2 years.
+    -   **Apache Cassandra:** 5-10 TB+ for chat messages within 1-2 years, potentially growing much larger with active usage. Cassandra's linear scalability handles this well.
+    -   **Elasticsearch:** 500 GB - 1 TB for vendor search indexes.
+    -   **S3 (Media):** Potentially many TBs for profile pictures, service images, and any shared media in chat.
+-   **Growth Projections:**
+    -   **User Base:** 10x growth in active users over the first 2-3 years.
+    -   **Booking Volume:** Corresponding 10x increase in bookings.
+    -   **Chat/Call Activity:** Exponential growth, as real-time features are sticky.
+    -   **Data Storage:** Approximately 2-3x annual growth for relational data, 5-10x for chat messages.
+## Scaling Approach
+-   **Horizontal Scaling:**
+    -   **Stateless Services:** All microservices (User, Vendor, Booking, Notification, Payment, Search, Admin) are designed to be stateless, allowing them to be scaled horizontally by adding more instances behind load balancers (e.g., AWS ALB, Kubernetes Service).
+    -   **Chat Service:** Scale WebSocket gateway instances independently. Use sticky sessions at the load balancer level or a distributed state store (Redis) to route messages to correct instances if direct client-to-instance mapping is not maintained.
+    -   **Kafka:** Scale Kafka brokers and consumer groups horizontally to handle increased message throughput.
+-   **Database Scaling:**
+    -   **PostgreSQL:** Utilize **read replicas** (e.g., AWS RDS Read Replicas) to offload read traffic from the primary instance. For extreme scale, consider **database sharding** based on `user_id` or `vendor_id` (e.g., using CitusDB or application-level sharding).
+    -   **Apache Cassandra:** Inherently designed for horizontal scaling; add more nodes to the cluster as data volume and write throughput increase.
+    -   **Elasticsearch:** Scale by adding more nodes to the cluster and distributing shards.
+    -   **Redis:** Use **Redis Cluster** for horizontal scaling and high availability.
+-   **Caching:** Extensive use of Redis to reduce database load.
+-   **Load Balancing:** All traffic will go through **AWS Application Load Balancer (ALB)** distributing requests across multiple EC2 instances or Kubernetes pods.
+-   **Auto-Scaling:** Implement **AWS Auto Scaling Groups** or **Kubernetes Horizontal Pod Autoscaler** to automatically adjust the number of service instances based on CPU utilization, memory, or custom metrics (e.g., Kafka consumer lag).
+-   **Bottlenecks to Address:**
+    -   **Database Hot Spots:** Specific tables (e.g., `vendor_availability`, `bookings`) can become hot spots. Implement proper indexing, optimize queries, and consider sharding or dedicated read replicas for these tables.
+    -   **Real-time Chat/Call Connections:** Managing thousands of concurrent WebSocket connections requires efficient server architecture (Go is chosen for this reason) and robust connection management, potentially using a dedicated message broker for internal routing (e.g., NATS).
+    -   **Third-Party API Limits:** Monitor and manage API usage for Twilio, Stripe, SendGrid to avoid hitting rate limits. Implement circuit breakers and exponential backoff for external calls.
+---
+# 🛡️ Reliability &amp; Security
+## High Availability
+-   **Redundancy Approach:**
+    -   **Multi-AZ Deployment:** Deploy all critical infrastructure (EC2 instances, RDS, Kafka, Redis, Elasticsearch) across multiple Availability Zones (AZs) within an AWS region. This protects against single data center failures.
+    -   **Database Replication:** PostgreSQL will use synchronous replication for the primary instance (e.g., Multi-AZ RDS) and asynchronous replication for read replicas. Cassandra inherently provides data replication across nodes.
+    -   **Load Balancers:** AWS ALBs are highly available and distribute traffic across healthy instances.
+    -   **Container Orchestration:** Kubernetes (or AWS ECS) ensures automatic rescheduling of failed containers and maintains desired replica counts.
+-   **Failover Strategy:**
+    -   **DNS Failover:** Use Route 53 health checks to automatically failover traffic to a healthy region or alternative endpoint in case of a regional outage (for disaster recovery).
+    -   **Automatic Database Failover:** AWS RDS Multi-AZ automatically promotes a standby replica to primary in case of primary instance failure. Cassandra handles node failures gracefully through its distributed nature.
+    -   **Circuit Breakers &amp; Retries:** Implement circuit breakers (e.g., Netflix Hystrix, Resilience4j) in microservices to prevent cascading failures when upstream services are unhealthy. Use exponential backoff and jitter for retries.
+    -   **Idempotency:** Design API endpoints and Kafka consumers to be idempotent to safely retry operations without unintended side effects.
+## Security Measures
+-   **Authentication/Authorization:**
+    -   **JWT (JSON Web Tokens):** Used for stateless authentication. Tokens issued upon successful login, signed by the server, and validated by the API Gateway and individual microservices.
+    -   **OAuth2 (for Social Logins):** Integrate with providers like Google, Facebook for user authentication.
+    -   **Role-Based Access Control (RBAC):** Define roles (user, vendor, admin) and assign permissions based on these roles. API Gateway and services enforce these permissions.
+-   **Data Protection:**
+    -   **Encryption at Rest:** All databases (PostgreSQL, Cassandra, Elasticsearch) and storage (S3) will use AWS KMS for encryption at rest.
+    -   **Encryption in Transit:** All communication will use TLS/SSL (HTTPS for API Gateway, internal mTLS for inter-service communication where feasible, WebSockets over WSS).
+    -   **Regular Backups:** Automated daily backups for PostgreSQL (AWS RDS snapshots), Cassandra snapshots, and S3 versioning.
+    -   **Data Masking/Anonymization:** For sensitive data in non-production environments.
+-   **Network Security:**
+    -   **VPC (Virtual Private Cloud):** Isolate application resources within a private network.
+    -   **Security Groups &amp; Network ACLs:** Strict firewall rules to control inbound/outbound traffic at instance and subnet levels. Only necessary ports are open.
+    -   **Web Application Firewall (WAF):** AWS WAF at the API Gateway to protect against common web exploits (SQL injection, XSS).
+-   **API Security:**
+    -   **Rate Limiting:** Protect APIs from abuse and DDoS attacks. Implement at the API Gateway and potentially per-service.
+    -   **Input Validation:** Strict validation of all input parameters to prevent injection attacks and ensure data integrity.
+    -   **API Key Management:** Securely manage API keys for third-party integrations (e.g., AWS Secrets Manager).
+-   **Compliance:** Adhere to relevant data privacy regulations (e.g., GDPR, CCPA) and payment industry standards (PCI DSS for payment processing via Stripe).
+---
+# 🚀 Implementation Roadmap
+## Phase 1: MVP (Week 1-2)
+-   **Core Services:** Implement basic User, Vendor, Booking, and Payment Services with PostgreSQL.
+-   **Frontend (Web):** User/Vendor registration, login, basic vendor profile viewing, simple booking flow.
+-   **Payment Integration:** Integrate **Stripe** for basic booking payments (one-time charges).
+-   **Admin Panel:** Basic user/vendor listing and status management.
+-   **Infrastructure:** Setup initial AWS VPC, EC2 instances/EKS cluster, RDS PostgreSQL, API Gateway.
+-   **Key Features:**
+    -   User/Vendor Registration &amp; Login
+    -   Vendor Profile Creation &amp; Listing
+    -   Search/Browse Vendors (basic filters)
+    -   Booking a Vendor (fixed time slots)
+    -   Payment Processing via Stripe
+    -   Basic Booking Confirmation Email (SendGrid)
+## Phase 2: Scale (Week 3-4)
+-   **Real-time Communication:** Develop Chat Service (Go + Cassandra + WebSockets) and Call Service (Go + Twilio integration).
+-   **Enhanced Booking:** Vendor availability calendar management, cancellation flow.
+-   **Notification System:** Implement Notification Service with Kafka integration for email/SMS notifications (SendGrid, Twilio).
+-   **Search &amp; Discovery:** Integrate **Elasticsearch** for advanced vendor search, filtering, and geo-location.
+-   **Admin Panel:** Enhance with booking oversight, content moderation for reviews.
+-   **Infrastructure:** Setup Kafka cluster, Cassandra cluster, Elasticsearch cluster, Redis for caching.
+-   **Key Features:**
+    -   Real-time Chat between User &amp; Vendor
+    -   In-app Voice/Video Calls via Twilio
+    -   Advanced Vendor Search &amp; Filtering
+    -   Comprehensive Notification System (Email, SMS, Push)
+    -   Vendor Payouts via Stripe Connect
+    -   User Reviews &amp; Ratings for Vendors
+## Phase 3: Optimize (Week 5+)
+-   **Performance Tuning:** Optimize database queries, fine-tune caching strategies, scale infrastructure based on real-world load.
+-   **Advanced Features:** Implement personalized recommendations, dynamic pricing, fraud detection.
+-   **Monitoring &amp; Analytics:** Implement comprehensive monitoring (Prometheus/Grafana) and centralized logging (ELK stack) for proactive issue detection and business intelligence.
+-   **Refinement:** Improve UI/UX, add mobile app functionality (React Native).
+-   **Key Features:**
+    -   Performance Monitoring &amp; Alerting
+    -   Advanced Analytics Dashboards
+    -   Fraud Detection &amp; Trust &amp; Safety features
+    -   Mobile Application (React Native)
+    -   Personalized Vendor Recommendations
+    -   A/B Testing Framework for new features
+---
+# ⚠️ Key Trade-offs
+-   **Decision 1: Microservices vs. Monolith** → Chose **Microservices** because it offers superior scalability, fault isolation, and allows independent development/deployment teams. This is crucial for a complex marketplace with real-time components and diverse functionalities. The trade-off is increased operational complexity (more services to manage, distributed transactions, monitoring) and initial development overhead compared to a monolithic approach.
+-   **Decision 2: Polyglot Persistence (PostgreSQL, Cassandra, Elasticsearch) vs. Single Database (e.g., only PostgreSQL)** → Chose **Polyglot Persistence** because different data types have different access patterns and scalability requirements. PostgreSQL excels at relational data with ACID properties, Cassandra for high-volume time-series writes (chat), and Elasticsearch for complex search. The trade-off is increased data management complexity (multiple database types to operate, learn, and back up) and potential data consistency challenges across different stores.
+-   **Decision 3: In-app Call/Chat (Hybrid approach with 3rd party for calls) vs. Purely In-House or Purely 3rd Party** → Chose **Hybrid (In-house Chat, 3rd Party Calls)** because building a robust, global WebRTC-based calling infrastructure from scratch is extremely complex and costly. Leveraging **Twilio** for calls significantly reduces time-to-market and operational burden. For chat, an in-house solution offers more control, customization, and potentially better cost efficiency for high volume compared to per-message 3rd party costs. The trade-off is reliance on a third-party for a critical feature (calls) and managing two distinct real-time communication systems.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>architecture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[-0.06732089817523956, -0.05011502280831337, -0.06386569142341614, -0.05490931496024132, -0.09718784689903259, -0.03808531165122986, 0.04269425570964813, 0.01833169162273407, 0.03174174576997757, -0.012035643681883812, -0.02029975689947605, -0.01978171057999134, 0.020173581317067146, 0.012166456319391727, 0.1009870246052742, -0.04582405835390091, 0.06068874150514603, -0.016645878553390503, -0.03230622410774231, -0.07157307863235474, 0.016624314710497856, 0.04409383237361908, -0.03927534073591232, 0.0482967272400856, -0.03993438184261322, -0.07298381626605988, -0.0033322367817163467, 0.010893336497247219, 0.08673669397830963, -0.01512996293604374, 0.10281039774417877, 0.017133984714746475, 0.017220931127667427, 0.03530404344201088, -0.049361295998096466, -0.00850052572786808, -0.010606515221297741, -0.08313295990228653, -0.032950062304735184, -0.056223314255476, -0.05492314323782921, -0.027203034609556198, -0.06774650514125824, 0.03413527458906174, 0.02362186647951603, -0.03320309892296791, -0.06617564707994461, 0.020782271400094032, 0.02731356956064701, 0.06334345787763596, -0.0021604334469884634, -0.08325660973787308, -0.004366251640021801, 0.007626910228282213, -0.06774713099002838, 0.07786978036165237, -0.050463903695344925, 0.0031840838491916656, -0.03810028359293938, -0.055811185389757156, 0.02568380907177925, 0.007615585811436176, -0.0061430782079696655, -0.004612474702298641, -0.02942664735019207, 0.024049771949648857, -0.10380497574806213, 0.0002511221100576222, 0.020722514018416405, -0.06492967903614044, -0.032204315066337585, -0.012039502151310444, 0.022608797997236252, -0.004172983579337597, -0.034659650176763535, -0.04968687891960144, -0.0168305691331625, 0.0031343779992312193, -0.012665936723351479, -0.07087922096252441, -0.02556871995329857, 0.030223423615098, -0.022014426067471504, 0.03839227929711342, -0.04346146434545517, -0.053299516439437866, 0.019794199615716934, 0.04486510902643204, -0.0487058162689209, -0.00146053871139884, 0.0876457691192627, 0.04430925473570824, 0.03481392562389374, -0.04390642046928406, -0.05414062738418579, 0.05381268635392189, -0.007696871180087328, -0.05615648627281189, 0.018431145697832108, 0.04814619943499565, -0.0533188059926033, 0.010260863229632378, 0.030579455196857452, 0.002095589879900217, -0.039524078369140625, 0.03355568274855614, 0.0028340783901512623, -0.016758104786276817, 0.006882700603455305, 0.056985750794410706, -0.1434057354927063, 0.03573650121688843, -0.03452359512448311, -0.05850879102945328, 0.03144999220967293, 0.015012240968644619, 0.017559971660375595, 0.013272148557007313, 0.09135246276855469, 0.020658113062381744, -0.009205524809658527, 0.06680770963430405, -0.0036826152354478836, -0.016466321423649788, 0.05013410001993179, -0.02436992898583412, 0.051347751170396805, 6.482384820464433e-33, 0.03460163250565529, 0.06307081878185272, -0.018541347235441208, -0.007396331988275051, 0.053587332367897034, 0.016882527619600296, 0.020333420485258102, -0.03064197115600109, 0.009388318285346031, -0.07044336199760437, 0.02424786612391472, 0.04279583320021629, 0.0022698137909173965, -0.0037109856493771076, 0.09166387468576431, 0.007025266997516155, 0.024167301133275032, 0.028964921832084656, 0.10988114029169083, -0.06557496637105942, -0.0967695340514183, -0.05300347879528999, 0.024255288764834404, 0.07832011580467224, 0.10452433675527573, 0.06034059077501297, 0.08698857575654984, 0.04658050462603569, 0.06644979119300842, -0.009241492487490177, 0.12234234809875488, -0.09541498124599457, -0.05813486874103546, 0.006894293706864119, -0.004271946847438812, 0.009663790464401245, -0.055022552609443665, -0.07347267866134644, 0.026100102812051773, 0.03292520344257355, -0.08145132660865784, -0.008817905560135841, -0.08064460009336472, 0.005214062985032797, -0.0715479925274849, 0.06404943019151688, -0.019519351422786713, -0.0012150992406532168, 0.04982684552669525, 0.025248313322663307, -0.016790643334388733, -0.016073616221547127, 0.01344282180070877, 0.06473907828330994, 0.014188255183398724, -0.03181765601038933, -0.01654912531375885, -0.07627963274717331, -0.00022917268506716937, -0.021254193037748337, -0.016538912430405617, -0.09242341667413712, -0.009905916638672352, -0.0332600474357605, -0.08924037963151932, -0.0467129684984684, -0.017835672944784164, -0.06725388020277023, 0.02191879041492939, -0.041786666959524155, -0.05773663520812988, 0.024980006739497185, 0.1294534057378769, 0.07499285787343979, -0.12995395064353943, 0.06745738536119461, -0.027296189218759537, -0.02391236089169979, -0.04304579645395279, -0.006205688696354628, 0.017085039988160133, -0.038858745247125626, 0.06779021769762039, 0.022981787100434303, 0.02423880249261856, 0.004492694046348333, 0.041960086673498154, -0.009033987298607826, -0.04748757928609848, 0.08971785008907318, -0.0820203498005867, 0.12539145350456238, 0.031168954446911812, 0.0895039439201355, -0.03738955780863762, -6.689852226544874e-33, -0.09765549004077911, -0.03906995803117752, -0.06649967283010483, 0.005537946242839098, 0.034401558339595795, 0.017953570932149887, -0.016261983662843704, 0.014430983923375607, 0.005689115263521671, 0.006114862859249115, -0.06865722686052322, 0.006830829661339521, 0.05102109536528587, -0.03155990689992905, -0.04956519603729248, 0.0519622266292572, -0.026989834383130074, -0.07457670569419861, -0.01856808550655842, 0.013138656504452229, -0.04665059223771095, 0.13775859773159027, -0.05934780836105347, -0.037266723811626434, 0.007707060780376196, -0.015089718624949455, -0.09257752448320389, 0.017091482877731323, -0.0017298468155786395, -0.021618328988552094, 0.013548004440963268, -0.10021928697824478, -0.011442499235272408, -0.01976793259382248, 0.007093297783285379, -0.03744715452194214, 0.046539630740880966, 0.09084527939558029, 0.0006754243513569236, -0.0007752730743959546, 0.06816237419843674, -0.03300406411290169, 0.02576265297830105, -0.08469338715076447, -0.049614544957876205, -0.029692569747567177, -0.040812984108924866, 0.05121815577149391, -0.03961308300495148, -0.01851518452167511, -0.023509474471211433, -0.04124194011092186, 0.03632975369691849, -0.018390366807579994, 0.015617064200341702, 0.07456208765506744, 0.070576973259449, -0.09158758819103241, 0.09549276530742645, 0.002374376403167844, -0.005315833259373903, -0.03336325287818909, 0.09793602675199509, 0.035128843039274216, 0.08532702922821045, -0.062169335782527924, 0.022244203835725784, 0.06863728165626526, -0.014808339066803455, 0.01862618513405323, 0.031301870942115784, -0.023032596334815025, -0.03012491576373577, 0.041932180523872375, -0.008989575318992138, 0.030571140348911285, 0.03453533723950386, -0.048714857548475266, 0.05397328734397888, -0.050995826721191406, -0.04466455057263374, 0.07888206839561462, 0.03664366528391838, -0.03337195888161659, -0.029289135709404945, -0.051341548562049866, 0.06199309974908829, -0.0558759830892086, -0.007383037358522415, -0.08134069293737411, -0.08492003381252289, 0.05645393207669258, -0.002718145027756691, 0.07424718886613846, 0.019298765808343887, -3.43826513926615e-08, 0.007106649223715067, -0.06542515009641647, -0.035616643726825714, 0.003314474830403924, -0.05280148983001709, -0.09811881929636002, 0.056439705193042755, 0.06634604185819626, 0.08132591843605042, 0.04871172085404396, -0.02653454802930355, -0.10466817021369934, -0.06477165222167969, 0.06529244035482407, -0.0014971498167142272, 0.0327531136572361, 0.035951193422079086, 0.0402994267642498, -0.020665468648076057, -0.08989817649126053, 0.06171756237745285, 0.029693176969885826, 0.04483388364315033, -0.014921498484909534, 0.09606719762086868, 0.002551361219957471, -0.03395051509141922, 0.076231949031353, -0.0479581393301487, 0.022527281194925308, -0.021567540243268013, 0.03911662474274635, 0.11051931232213974, -0.03321162611246109, 0.08374737948179245, 0.023035960271954536, -0.07772305607795715, -0.0006280553643591702, -0.014004018157720566, 0.003241522004827857, 0.04318781942129135, 0.008163627237081528, 0.09629642218351364, -0.0070884739980101585, 0.1104503944516182, 0.011132468469440937, 0.011947713792324066, -0.10135733336210251, 0.049003101885318756, -0.01274801790714264, -0.06952166557312012, 0.007438185159116983, 0.09160444885492325, -0.02635524980723858, -0.057847507297992706, 0.04235386103391647, 0.0019353028619661927, -0.0016075735911726952, 0.10742676258087158, 0.013024549931287766, 0.009334261529147625, 0.04207789525389671, -0.0435640849173069, 0.026765765622258186]</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-12-31T16:29:40.317404</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1967,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,6 +2586,167 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UI_20251231163436_2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-31T16:34:36.643659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>im making website where user can book vendors or sday astrologer , calll booking and chatbooking call we can use in app 3rd part services , notification and all admin paneel also included give complete architecture for this</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># 🎯 Design Strategy
+The core strategy for this platform is to blend the **professionalism and efficiency of a modern SaaS dashboard** (like Stripe or Linear) with the **trust, serenity, and personalized experience** expected from a service involving astrologers and personal guidance. The UI must feel reliable, secure, and easy to navigate for both users booking services and administrators managing vendors. We'll prioritize clear information hierarchy, intuitive booking flows, robust communication tools, and a calming aesthetic that instills confidence.
+---
+# 🎨 Color System
+## Primary Palette
+| Color | Hex | Usage |
+|-------|-----|-------|
+| Primary (Deep Indigo) | #3F51B5 | Main CTAs, active states, key branding elements |
+| Secondary (Calm Teal) | #00BCD4 | Accent elements, progress indicators, secondary actions |
+| Accent (Warm Gold) | #FFC107 | Highlights, warnings, new notifications, 'premium' features |
+| Background (Light Gray) | #F5F7FA | Page backgrounds, card backgrounds |
+| Text (Dark Slate) | #263238 | Primary body text, headings |
+## Color Psychology
+-   **Deep Indigo (#3F51B5):** Conveys trust, wisdom, reliability, and a touch of the mystical or spiritual without being overly cliché. It's professional yet calming.
+-   **Calm Teal (#00BCD4):** Represents clarity, communication, and a sense of calm. It offers a refreshing contrast and is often associated with healing and guidance, fitting for an astrologer service.
+-   **Warm Gold (#FFC107):** Evokes a sense of value, quality, and optimism. It's used sparingly to highlight important actions, draw attention to new features, or signal success, adding a touch of warmth and positivity.
+-   **Light Gray (#F5F7FA):** Provides a clean, spacious, and modern backdrop, ensuring content remains the focus and reducing visual clutter.
+-   **Dark Slate (#263238):** Offers excellent readability and a sophisticated feel, ensuring accessibility and comfort for extended reading.
+---
+# 🔤 Typography
+## Font Pairing
+-   **Headings: Poppins** - A geometric sans-serif that is friendly, modern, and highly legible. It carries enough character to feel distinct without being distracting, perfect for creating a clean and inviting hierarchy.
+-   **Body: Inter** - A highly functional and readable sans-serif typeface specifically designed for user interfaces. Its clarity and range of weights ensure excellent legibility across various screen sizes and information densities, crucial for data tables and chat interfaces.
+## Type Scale
+| Element | Size | Weight |
+|---------|------|--------|
+| H1 | 48px | Bold |
+| H2 | 32px | Semibold |
+| H3 | 24px | Medium |
+| H4 | 20px | Medium |
+| Body Large | 18px | Regular |
+| Body | 16px | Regular |
+| Small Text | 14px | Regular |
+| Caption | 12px | Regular |
+---
+# 🧩 Key Components
+## Buttons
+-   **Primary:** Filled with `Primary (Deep Indigo #3F51B5)`, `Poppins` Semibold, 16px. Rounded corners (8px). Min height 48px. `box-shadow: 0 4px 12px rgba(63, 81, 181, 0.2);`
+-   **Secondary:** Outlined with `Primary (Deep Indigo #3F51B5)` 2px border, transparent background. `Poppins` Semibold, 16px. Rounded corners (8px). Min height 48px.
+-   **Tertiary (Text):** Text link, `Primary (Deep Indigo #3F51B5)`, `Poppins` Medium, 16px. No background or border.
+-   **Destructive:** Filled with `#EF5350` (Red), `Poppins` Semibold, 16px. For delete/cancel actions.
+## Cards
+-   **Purpose:** Used for vendor/astrologer profiles, booking summaries, notification items, and dashboard widgets.
+-   **Shadow:** Subtle `box-shadow: 0 2px 10px rgba(0, 0, 0, 0.08);` for depth without distraction.
+-   **Border radius:** 12px for a softer, modern feel.
+-   **Padding:** Default 24px internally. Content-specific padding can vary.
+-   **Background:** `#FFFFFF` (White) on `#F5F7FA` background for good contrast.
+## Forms
+-   **Input height:** 48px for easy tapping/clicking and good visual presence.
+-   **Label position:** Always `top-aligned` above the input field for clarity and to prevent reflow on focus/error.
+-   **Error states:** 1px `red border (#EF5350)` around the input field, accompanied by a clear, concise error message in red text (`#EF5350`) below the field.
+-   **Focus states:** 2px `Primary (Deep Indigo #3F51B5)` border around the input field.
+-   **Textareas:** Minimum height 120px, resizable.
+-   **Dropdowns:** Custom styled, consistent with input fields.
+## Data Tables (Admin Panel, User Bookings)
+-   **Structure:** Zebra striping (`#FDFDFD` for odd rows, `#FFFFFF` for even) for readability.
+-   **Headers:** Sticky headers for long tables, `Inter` Semibold, 14px, `#607D8B` (light gray text).
+-   **Sorting/Filtering:** Clear icons for sortable columns. Filter inputs/dropdowns above the table.
+-   **Pagination:** Bottom-aligned controls with clear page numbers and next/previous buttons.
+## Chat Interface
+-   **Message Bubbles:** Rounded corner bubbles. User messages: `Primary (Deep Indigo #3F51B5)` background, white text. Vendor/Astrologer messages: `#E0E0E0` background, `Dark Slate (#263238)` text.
+-   **Timestamp:** Subtle, small text below messages (`12px #9E9E9E`).
+-   **Input Field:** Always visible at the bottom, 48px height, with send button.
+-   **Attachments:** Support for images/files, clearly indicated.
+## Call Booking/In-App Call Interface
+-   **Booking Flow:** Multi-step form with clear progress indicators. Calendar integration for availability.
+-   **In-Call UI:** Minimalistic, showing caller/receiver name/avatar, call duration, mute/unmute, end call buttons. Clear status indicators (connecting, ringing, active).
+---
+# 📱 Layout Guidelines
+## Grid System
+-   **Container:** `max-width: 1440px` for large screens, `padding: 0 24px` on sides for general content.
+-   **Columns:** 12-column grid system for flexible and responsive layouts.
+-   **Gutter:** 24px horizontal and vertical spacing between grid items.
+## Spacing Scale
+-   Based on an 8px base grid for consistency.
+-   `4px` (xxs) → `8px` (xs) → `12px` (s) → `16px` (m) → `24px` (l) → `32px` (xl) → `48px` (xxl) → `64px` (xxxl)
+-   Used for margins, paddings, and component spacing.
+## Breakpoints
+| Device | Width |
+|--------|-------|
+| Mobile | `&lt;640px` |
+| Tablet | `640px - 1023px` |
+| Laptop | `1024px - 1439px` |
+| Desktop | `&gt;1440px` |
+---
+# ✨ Interactions
+## Hover States
+-   **Buttons:** Darken background by 10% for filled buttons, lighten border/text color for outlined buttons.
+-   **Cards:** Subtle `box-shadow` lift (`0 4px 16px rgba(0, 0, 0, 0.12)`) and slight `scale(1.01)` for interactive cards (e.g., vendor profiles).
+-   **Links:** Underline on hover or slight color shift.
+-   **Table Rows:** Light `background-color` change (`#F0F4F8`) on hover for interactive rows.
+## Transitions
+-   **Duration:** `180ms` for most UI element transitions (e.g., button hovers, card lifts).
+-   **Easing:** `ease-out` for a natural, smooth deceleration effect.
+-   **Forms:** `200ms ease-in-out` for label animations, input focus changes.
+## Feedback
+-   **Loading States:** Skeleton loaders for content (e.g., vendor lists, dashboard charts) and subtle spinners for individual actions.
+-   **Toast Notifications:** Non-intrusive, top-right or bottom-center messages for success, error, or informational feedback. Auto-dismiss after 3-5 seconds.
+-   **Modals/Dialogs:** For critical actions (e.g., confirming a booking, deleting a profile) or detailed information, with clear primary and secondary actions.
+---
+# 🌟 Top 3 Inspirations
+1.  **Stripe Dashboard** - Why it's relevant: Excellent example of an information-dense yet incredibly clean and usable interface. We can learn from its clear data hierarchy, contextual actions within tables, and effective use of white space to manage complexity. It instills a sense of professionalism and reliability, crucial for a booking platform.
+2.  **Linear** - Key feature to learn from: Its focus on efficiency, keyboard-first interactions, and a modern, minimalist aesthetic. While our platform might not be purely keyboard-driven, the clean UI, thoughtful use of dark mode (potentially an option for us), and streamlined workflows are highly valuable for both users and admin panels.
+3.  **Calm / Headspace** - Design pattern to use: These apps excel at creating a serene, trustworthy, and user-friendly experience through their color palettes, subtle animations, and high-quality imagery. Their ability to convey peace and guidance through UI elements is directly transferable to an astrologer booking service, helping to build confidence and a positive emotional connection.
+---
+# ✅ Quick Implementation Checklist
+-   [x] Establish a comprehensive color system with semantic variable names.
+-   [x] Integrate Poppins and Inter fonts via Google Fonts or self-hosting.
+-   [x] Define a consistent type scale for all text elements.
+-   [x] Create atomic components for buttons (primary, secondary, text, destructive).
+-   [x] Design card component with consistent shadows and border-radius.
+-   [x] Standardize form input styles, including focus and error states.
+-   [x] Implement a responsive 12-column grid system with defined breakpoints.
+-   [x] Document a consistent spacing scale based on 8px increments.
+-   [x] Define hover states for all interactive elements.
+-   [x] Implement subtle UI transitions for a polished feel.
+-   [x] Plan for loading states (skeletons, spinners) and toast notifications.
+-   [x] Develop clear UI patterns for data tables, chat, and call interfaces.
+</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[-0.06732089817523956, -0.05011502280831337, -0.06386569142341614, -0.05490931496024132, -0.09718784689903259, -0.03808531165122986, 0.04269425570964813, 0.01833169162273407, 0.03174174576997757, -0.012035643681883812, -0.02029975689947605, -0.01978171057999134, 0.020173581317067146, 0.012166456319391727, 0.1009870246052742, -0.04582405835390091, 0.06068874150514603, -0.016645878553390503, -0.03230622410774231, -0.07157307863235474, 0.016624314710497856, 0.04409383237361908, -0.03927534073591232, 0.0482967272400856, -0.03993438184261322, -0.07298381626605988, -0.0033322367817163467, 0.010893336497247219, 0.08673669397830963, -0.01512996293604374, 0.10281039774417877, 0.017133984714746475, 0.017220931127667427, 0.03530404344201088, -0.049361295998096466, -0.00850052572786808, -0.010606515221297741, -0.08313295990228653, -0.032950062304735184, -0.056223314255476, -0.05492314323782921, -0.027203034609556198, -0.06774650514125824, 0.03413527458906174, 0.02362186647951603, -0.03320309892296791, -0.06617564707994461, 0.020782271400094032, 0.02731356956064701, 0.06334345787763596, -0.0021604334469884634, -0.08325660973787308, -0.004366251640021801, 0.007626910228282213, -0.06774713099002838, 0.07786978036165237, -0.050463903695344925, 0.0031840838491916656, -0.03810028359293938, -0.055811185389757156, 0.02568380907177925, 0.007615585811436176, -0.0061430782079696655, -0.004612474702298641, -0.02942664735019207, 0.024049771949648857, -0.10380497574806213, 0.0002511221100576222, 0.020722514018416405, -0.06492967903614044, -0.032204315066337585, -0.012039502151310444, 0.022608797997236252, -0.004172983579337597, -0.034659650176763535, -0.04968687891960144, -0.0168305691331625, 0.0031343779992312193, -0.012665936723351479, -0.07087922096252441, -0.02556871995329857, 0.030223423615098, -0.022014426067471504, 0.03839227929711342, -0.04346146434545517, -0.053299516439437866, 0.019794199615716934, 0.04486510902643204, -0.0487058162689209, -0.00146053871139884, 0.0876457691192627, 0.04430925473570824, 0.03481392562389374, -0.04390642046928406, -0.05414062738418579, 0.05381268635392189, -0.007696871180087328, -0.05615648627281189, 0.018431145697832108, 0.04814619943499565, -0.0533188059926033, 0.010260863229632378, 0.030579455196857452, 0.002095589879900217, -0.039524078369140625, 0.03355568274855614, 0.0028340783901512623, -0.016758104786276817, 0.006882700603455305, 0.056985750794410706, -0.1434057354927063, 0.03573650121688843, -0.03452359512448311, -0.05850879102945328, 0.03144999220967293, 0.015012240968644619, 0.017559971660375595, 0.013272148557007313, 0.09135246276855469, 0.020658113062381744, -0.009205524809658527, 0.06680770963430405, -0.0036826152354478836, -0.016466321423649788, 0.05013410001993179, -0.02436992898583412, 0.051347751170396805, 6.482384820464433e-33, 0.03460163250565529, 0.06307081878185272, -0.018541347235441208, -0.007396331988275051, 0.053587332367897034, 0.016882527619600296, 0.020333420485258102, -0.03064197115600109, 0.009388318285346031, -0.07044336199760437, 0.02424786612391472, 0.04279583320021629, 0.0022698137909173965, -0.0037109856493771076, 0.09166387468576431, 0.007025266997516155, 0.024167301133275032, 0.028964921832084656, 0.10988114029169083, -0.06557496637105942, -0.0967695340514183, -0.05300347879528999, 0.024255288764834404, 0.07832011580467224, 0.10452433675527573, 0.06034059077501297, 0.08698857575654984, 0.04658050462603569, 0.06644979119300842, -0.009241492487490177, 0.12234234809875488, -0.09541498124599457, -0.05813486874103546, 0.006894293706864119, -0.004271946847438812, 0.009663790464401245, -0.055022552609443665, -0.07347267866134644, 0.026100102812051773, 0.03292520344257355, -0.08145132660865784, -0.008817905560135841, -0.08064460009336472, 0.005214062985032797, -0.0715479925274849, 0.06404943019151688, -0.019519351422786713, -0.0012150992406532168, 0.04982684552669525, 0.025248313322663307, -0.016790643334388733, -0.016073616221547127, 0.01344282180070877, 0.06473907828330994, 0.014188255183398724, -0.03181765601038933, -0.01654912531375885, -0.07627963274717331, -0.00022917268506716937, -0.021254193037748337, -0.016538912430405617, -0.09242341667413712, -0.009905916638672352, -0.0332600474357605, -0.08924037963151932, -0.0467129684984684, -0.017835672944784164, -0.06725388020277023, 0.02191879041492939, -0.041786666959524155, -0.05773663520812988, 0.024980006739497185, 0.1294534057378769, 0.07499285787343979, -0.12995395064353943, 0.06745738536119461, -0.027296189218759537, -0.02391236089169979, -0.04304579645395279, -0.006205688696354628, 0.017085039988160133, -0.038858745247125626, 0.06779021769762039, 0.022981787100434303, 0.02423880249261856, 0.004492694046348333, 0.041960086673498154, -0.009033987298607826, -0.04748757928609848, 0.08971785008907318, -0.0820203498005867, 0.12539145350456238, 0.031168954446911812, 0.0895039439201355, -0.03738955780863762, -6.689852226544874e-33, -0.09765549004077911, -0.03906995803117752, -0.06649967283010483, 0.005537946242839098, 0.034401558339595795, 0.017953570932149887, -0.016261983662843704, 0.014430983923375607, 0.005689115263521671, 0.006114862859249115, -0.06865722686052322, 0.006830829661339521, 0.05102109536528587, -0.03155990689992905, -0.04956519603729248, 0.0519622266292572, -0.026989834383130074, -0.07457670569419861, -0.01856808550655842, 0.013138656504452229, -0.04665059223771095, 0.13775859773159027, -0.05934780836105347, -0.037266723811626434, 0.007707060780376196, -0.015089718624949455, -0.09257752448320389, 0.017091482877731323, -0.0017298468155786395, -0.021618328988552094, 0.013548004440963268, -0.10021928697824478, -0.011442499235272408, -0.01976793259382248, 0.007093297783285379, -0.03744715452194214, 0.046539630740880966, 0.09084527939558029, 0.0006754243513569236, -0.0007752730743959546, 0.06816237419843674, -0.03300406411290169, 0.02576265297830105, -0.08469338715076447, -0.049614544957876205, -0.029692569747567177, -0.040812984108924866, 0.05121815577149391, -0.03961308300495148, -0.01851518452167511, -0.023509474471211433, -0.04124194011092186, 0.03632975369691849, -0.018390366807579994, 0.015617064200341702, 0.07456208765506744, 0.070576973259449, -0.09158758819103241, 0.09549276530742645, 0.002374376403167844, -0.005315833259373903, -0.03336325287818909, 0.09793602675199509, 0.035128843039274216, 0.08532702922821045, -0.062169335782527924, 0.022244203835725784, 0.06863728165626526, -0.014808339066803455, 0.01862618513405323, 0.031301870942115784, -0.023032596334815025, -0.03012491576373577, 0.041932180523872375, -0.008989575318992138, 0.030571140348911285, 0.03453533723950386, -0.048714857548475266, 0.05397328734397888, -0.050995826721191406, -0.04466455057263374, 0.07888206839561462, 0.03664366528391838, -0.03337195888161659, -0.029289135709404945, -0.051341548562049866, 0.06199309974908829, -0.0558759830892086, -0.007383037358522415, -0.08134069293737411, -0.08492003381252289, 0.05645393207669258, -0.002718145027756691, 0.07424718886613846, 0.019298765808343887, -3.43826513926615e-08, 0.007106649223715067, -0.06542515009641647, -0.035616643726825714, 0.003314474830403924, -0.05280148983001709, -0.09811881929636002, 0.056439705193042755, 0.06634604185819626, 0.08132591843605042, 0.04871172085404396, -0.02653454802930355, -0.10466817021369934, -0.06477165222167969, 0.06529244035482407, -0.0014971498167142272, 0.0327531136572361, 0.035951193422079086, 0.0402994267642498, -0.020665468648076057, -0.08989817649126053, 0.06171756237745285, 0.029693176969885826, 0.04483388364315033, -0.014921498484909534, 0.09606719762086868, 0.002551361219957471, -0.03395051509141922, 0.076231949031353, -0.0479581393301487, 0.022527281194925308, -0.021567540243268013, 0.03911662474274635, 0.11051931232213974, -0.03321162611246109, 0.08374737948179245, 0.023035960271954536, -0.07772305607795715, -0.0006280553643591702, -0.014004018157720566, 0.003241522004827857, 0.04318781942129135, 0.008163627237081528, 0.09629642218351364, -0.0070884739980101585, 0.1104503944516182, 0.011132468469440937, 0.011947713792324066, -0.10135733336210251, 0.049003101885318756, -0.01274801790714264, -0.06952166557312012, 0.007438185159116983, 0.09160444885492325, -0.02635524980723858, -0.057847507297992706, 0.04235386103391647, 0.0019353028619661927, -0.0016075735911726952, 0.10742676258087158, 0.013024549931287766, 0.009334261529147625, 0.04207789525389671, -0.0435640849173069, 0.026765765622258186]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-12-31T16:34:36.643659</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2175,7 +2758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2184,50 +2767,485 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Prompt</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Prompt_Embedding</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Usage_Count</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Last_Used</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>User_Rating</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DAT_20260102173745_1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2026-01-02T17:37:45.599796</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Social network with posts, comments, likes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t># 📋 Database Strategy Overview
+This database design for a Twitter/X-style social network prioritizes extreme scalability, real-time performance, and high availability, leveraging a polyglot persistence approach. The core strategy revolves around a hybrid database model: PostgreSQL for robust, transactional data and metadata; Redis for ultra-low latency caching, real-time timelines, and rate limiting; and Neo4j (or a similar graph database) for efficient social graph management. This allows each component to excel in its specialized domain, addressing the unique challenges of a global social media platform, such as massive read/write throughput, fan-out mechanisms, and complex relationship queries. Sharding, extensive caching, and asynchronous processing are fundamental to handling the anticipated scale of hundreds of millions of users and billions of daily interactions.
+---
+# 🗃️ Database Selection
+## Recommended: PostgreSQL
+**Type:** SQL (Relational Database Management System)
+**Why:** PostgreSQL offers strong ACID compliance, robust transactional integrity, and a rich feature set crucial for core user data, posts, comments, media metadata, and notifications. Its extensibility, mature ecosystem, and proven scalability through replication and sharding make it an excellent choice for the primary persistent store where data consistency is paramount.
+| Requirement | How This Database Handles It |
+|-------------|------------------------------|
+| Read/Write Pattern | Balanced; handles high volume of writes (new posts, comments, likes) and reads (fetching specific posts, user profiles). Optimized with appropriate indexing. |
+| Scale | Horizontally scalable via sharding (e.g., CitusData extension or application-level sharding) and vertically scalable with powerful hardware. Read replicas provide read scaling. |
+| Consistency | Strong consistency (ACID) ensures data integrity for critical operations like user registration, financial transactions (if applicable), and post content. |
+## Recommended: Redis
+**Type:** NoSQL (Key-Value Store / In-memory Data Structure Store)
+**Why:** Redis provides unparalleled speed for caching, real-time data structures, and session management. It is essential for implementing fan-out timelines, handling hot data (trending topics, popular posts), rate limiting, and ephemeral data, significantly reducing load on the primary database and delivering real-time user experiences.
+| Requirement | How This Database Handles It |
+|-------------|------------------------------|
+| Read/Write Pattern | Extremely high read and write throughput (millions of ops/sec) for in-memory data access. Ideal for cached data, timelines, and counters. |
+| Scale | Horizontally scalable via Redis Cluster. Replication provides high availability and read scaling. Can scale to hundreds of terabytes of data. |
+| Consistency | Eventually consistent by default for distributed setups (Redis Cluster), but strong consistency can be achieved for single-instance operations. Data can be persisted to disk for durability. |
+## Recommended: Neo4j (or JanusGraph for distributed options)
+**Type:** NoSQL (Graph Database)
+**Why:** A dedicated graph database like Neo4j is optimized for storing and querying highly connected data, making it ideal for managing the social graph (follower/following relationships). It allows for efficient traversal of complex relationships, enabling features like finding mutual followers, friend suggestions, and identifying influencers, which are prohibitively expensive in a relational database at scale.
+| Requirement | How This Database Handles It |
+|-------------|------------------------------|
+| Read/Write Pattern | Excellent for complex graph traversals (reads) and efficient updates to relationships (writes). Optimized for connections, not just individual nodes. |
+| Scale | Horizontally scalable with clustering (Neo4j Causal Cluster, or JanusGraph with backend storage like Cassandra). Can handle billions of nodes and relationships. |
+| Consistency | ACID transactions for individual graph operations. Eventual consistency for cluster-wide replication. Ensures integrity of relationship updates. |
+---
+# 📊 Schema Design
+## Entity Relationship Overview
+```
+[User] 1---N [Post] 1---N [Comment]
+   |         |         |
+   1         1         1
+   |         |         |
+   N         N         N
+[Follows] [Media]   [Likes]
+   |         |
+   1         N
+   |         N
+   N       [Hashtag]
+   |         |
+   1         N
+   |         N
+[Notification]
+```
+*(Note: `Follows` is best represented in a Graph DB, but for completeness, a relational table is included for metadata/backup purposes)*
+## Table Definitions
+### Table: users (PostgreSQL)
+Stores core user profile information and authentication details.
+```sql
+CREATE TABLE users (
+    id UUID PRIMARY KEY DEFAULT gen_random_uuid(),
+    username VARCHAR(50) UNIQUE NOT NULL,
+    email VARCHAR(255) UNIQUE NOT NULL,
+    password_hash VARCHAR(255) NOT NULL, -- Store hashed passwords
+    display_name VARCHAR(100) NOT NULL,
+    bio TEXT,
+    profile_picture_url VARCHAR(2048), -- URL to media service
+    header_picture_url VARCHAR(2048),  -- URL to media service
+    created_at TIMESTAMP WITH TIME ZONE DEFAULT NOW(),
+    updated_at TIMESTAMP WITH TIME ZONE DEFAULT NOW(),
+    is_active BOOLEAN DEFAULT TRUE,
+    is_verified BOOLEAN DEFAULT FALSE,
+    last_login TIMESTAMP WITH TIME ZONE
+);
+```
+**Indexes:**
+- `idx_users_username` on (username) - for quick user lookups by handle.
+- `idx_users_email` on (email) - for login and email-based searches.
+- `idx_users_created_at` on (created_at) - for chronological user listing or analytics.
+### Table: posts (PostgreSQL)
+Stores individual posts (tweets).
+```sql
+CREATE TABLE posts (
+    id UUID PRIMARY KEY DEFAULT gen_random_uuid(),
+    user_id UUID NOT NULL REFERENCES users(id) ON DELETE CASCADE,
+    content TEXT NOT NULL, -- Max 280 characters for Twitter-like
+    media_ids UUID[] DEFAULT ARRAY[]::UUID[], -- Array of media_item IDs
+    reply_to_post_id UUID REFERENCES posts(id) ON DELETE SET NULL, -- For replies
+    repost_of_post_id UUID REFERENCES posts(id) ON DELETE SET NULL, -- For reposts/retweets
+    created_at TIMESTAMP WITH TIME ZONE DEFAULT NOW(),
+    updated_at TIMESTAMP WITH TIME ZONE DEFAULT NOW(),
+    is_deleted BOOLEAN DEFAULT FALSE,
+    visibility VARCHAR(20) DEFAULT 'public' NOT NULL CHECK (visibility IN ('public', 'followers', 'private')),
+    CONSTRAINT chk_post_type CHECK (
+        (reply_to_post_id IS NULL AND repost_of_post_id IS NULL) OR
+        (reply_to_post_id IS NOT NULL AND repost_of_post_id IS NULL) OR
+        (reply_to_post_id IS NULL AND repost_of_post_id IS NOT NULL)
+    ) -- A post can be a reply OR a repost, not both, or neither.
+);
+```
+**Indexes:**
+- `idx_posts_user_id` on (user_id, created_at DESC) - for fetching a user's posts efficiently, ordered by recency.
+- `idx_posts_created_at` on (created_at DESC) - for global timelines or trending posts.
+- `idx_posts_reply_to_post_id` on (reply_to_post_id, created_at DESC) - for fetching replies to a specific post.
+- `idx_posts_repost_of_post_id` on (repost_of_post_id) - for finding all reposts of a specific post.
+### Table: comments (PostgreSQL)
+Stores comments, which are essentially posts replying to other posts. This table is a logical extension of `posts` where `reply_to_post_id` is always set. For simplicity and consistency with Twitter's model where replies are also 'tweets', we can merge `comments` into `posts` using `reply_to_post_id`. The example above already handles this.
+### Table: likes (PostgreSQL)
+Records user likes on posts.
+```sql
+CREATE TABLE likes (
+    id UUID PRIMARY KEY DEFAULT gen_random_uuid(),
+    user_id UUID NOT NULL REFERENCES users(id) ON DELETE CASCADE,
+    post_id UUID NOT NULL REFERENCES posts(id) ON DELETE CASCADE,
+    created_at TIMESTAMP WITH TIME ZONE DEFAULT NOW(),
+    UNIQUE (user_id, post_id) -- A user can only like a post once
+);
+```
+**Indexes:**
+- `idx_likes_post_id_created_at` on (post_id, created_at DESC) - for fetching likes for a post, ordered by recency.
+- `idx_likes_user_id_created_at` on (user_id, created_at DESC) - for fetching posts liked by a user.
+### Table: media_items (PostgreSQL)
+Stores metadata for media files (images, videos) associated with posts. Actual files are stored in an object storage service like AWS S3.
+```sql
+CREATE TABLE media_items (
+    id UUID PRIMARY KEY DEFAULT gen_random_uuid(),
+    user_id UUID NOT NULL REFERENCES users(id) ON DELETE CASCADE,
+    file_url VARCHAR(2048) NOT NULL, -- URL to the actual media file in object storage
+    thumbnail_url VARCHAR(2048),
+    media_type VARCHAR(50) NOT NULL CHECK (media_type IN ('image', 'video', 'gif')),
+    file_size_bytes BIGINT,
+    duration_seconds INT, -- For videos
+    created_at TIMESTAMP WITH TIME ZONE DEFAULT NOW(),
+    description TEXT -- Alt text for accessibility
+);
+```
+**Indexes:**
+- `idx_media_items_user_id` on (user_id, created_at DESC) - for fetching media uploaded by a user.
+### Table: hashtags (PostgreSQL)
+Stores unique hashtags.
+```sql
+CREATE TABLE hashtags (
+    id UUID PRIMARY KEY DEFAULT gen_random_uuid(),
+    tag VARCHAR(255) UNIQUE NOT NULL,
+    created_at TIMESTAMP WITH TIME ZONE DEFAULT NOW()
+);
+```
+**Indexes:**
+- `idx_hashtags_tag` on (tag) - for quick lookup of hashtags.
+### Table: post_hashtags (PostgreSQL)
+Junction table for many-to-many relationship between posts and hashtags.
+```sql
+CREATE TABLE post_hashtags (
+    post_id UUID NOT NULL REFERENCES posts(id) ON DELETE CASCADE,
+    hashtag_id UUID NOT NULL REFERENCES hashtags(id) ON DELETE CASCADE,
+    PRIMARY KEY (post_id, hashtag_id)
+);
+```
+**Indexes:**
+- `idx_post_hashtags_hashtag_id` on (hashtag_id, post_id) - for finding posts by hashtag.
+### Table: notifications (PostgreSQL)
+Stores user notifications (e.g., new follower, like on post, reply).
+```sql
+CREATE TABLE notifications (
+    id UUID PRIMARY KEY DEFAULT gen_random_uuid(),
+    recipient_user_id UUID NOT NULL REFERENCES users(id) ON DELETE CASCADE,
+    sender_user_id UUID REFERENCES users(id) ON DELETE SET NULL, -- Optional, e.g., system notifications
+    notification_type VARCHAR(50) NOT NULL CHECK (notification_type IN ('like', 'comment', 'follow', 'repost', 'mention', 'system')),
+    related_post_id UUID REFERENCES posts(id) ON DELETE SET NULL,
+    related_comment_id UUID REFERENCES posts(id) ON DELETE SET NULL, -- If comment is a separate entity
+    is_read BOOLEAN DEFAULT FALSE,
+    created_at TIMESTAMP WITH TIME ZONE DEFAULT NOW()
+);
+```
+**Indexes:**
+- `idx_notifications_recipient_user_id_created_at` on (recipient_user_id, created_at DESC) - for fetching a user's notifications.
+- `idx_notifications_recipient_user_id_is_read` on (recipient_user_id, is_read, created_at DESC) - for fetching unread notifications.
+### Table: user_timelines (PostgreSQL/Redis)
+This table supports the "fan-out on write" model for user timelines. When a user posts, this entry is added to all their followers' timelines. For highly active users, this might be a Redis Sorted Set or List. For less active users, or as a persistent backup/history, it can be in PostgreSQL.
+```sql
+-- PostgreSQL representation for less active timelines or archival
+CREATE TABLE user_timelines (
+    user_id UUID NOT NULL REFERENCES users(id) ON DELETE CASCADE, -- The user whose timeline this entry belongs to
+    post_id UUID NOT NULL REFERENCES posts(id) ON DELETE CASCADE,
+    original_post_user_id UUID NOT NULL REFERENCES users(id) ON DELETE CASCADE, -- The user who originally posted
+    created_at TIMESTAMP WITH TIME ZONE DEFAULT NOW(), -- When the original post was created
+    PRIMARY KEY (user_id, post_id) -- A post only appears once in a user's timeline
+);
+```
+**Indexes:**
+- `idx_user_timelines_user_id_created_at` on (user_id, created_at DESC) - CRITICAL for fetching a user's timeline efficiently.
+### Social Graph (Neo4j)
+Manages follower/following relationships.
+**Node Labels:**
+- `User` with property `userId` (UUID from PostgreSQL `users.id`)
+**Relationship Types:**
+- `:FOLLOWS` from `User` to `User`
+**Example Cypher Queries:**
+- Create relationship: `MATCH (u1:User {userId: 'uuid1'}), (u2:User {userId: 'uuid2'}) CREATE (u1)-[:FOLLOWS]-&gt;(u2)`
+- Get followers: `MATCH (u1:User {userId: 'uuid1'})&lt;-[:FOLLOWS]-(follower:User) RETURN follower.userId`
+- Get following: `MATCH (u1:User {userId: 'uuid1'})-[:FOLLOWS]-&gt;(following:User) RETURN following.userId`
+- Get mutuals: `MATCH (u1:User {userId: 'uuid1'})-[:FOLLOWS]-&gt;(mutual:User)&lt;-[:FOLLOWS]-(u2:User {userId: 'uuid2'}) RETURN mutual.userId`
+---
+# 🔍 Query Patterns
+## Common Queries
+### Query 1: Fetch a user's home timeline (hybrid approach)
+**Description:** Get the most recent posts from users a specific user follows, including their own posts. This leverages Redis for the immediate, hot timeline and falls back to PostgreSQL or a pull model for older data.
+```sql
+-- Redis: For active users and recent timeline entries (fan-out on write)
+-- ZREVRANGE user:{user_id}:timeline 0 100 WITHSCORES
+-- This returns post IDs and their scores (timestamps), then hydrate post details from PostgreSQL/cache.
+-- PostgreSQL (Pull model for less active users or older timeline):
+SELECT
+    p.id, p.user_id, p.content, p.created_at, u.username, u.display_name, u.profile_picture_url
+FROM
+    posts p
+JOIN
+    users u ON p.user_id = u.id
+WHERE
+    p.user_id IN (
+        SELECT following_user_id FROM follows WHERE follower_user_id = 'your_user_uuid'
+    ) OR p.user_id = 'your_user_uuid' -- Include own posts
+ORDER BY
+    p.created_at DESC
+LIMIT 50;
+```
+**Expected Performance:**
+- Redis: &lt;5ms (for fetching IDs)
+- PostgreSQL: &lt;50ms (for fetching hydrated posts, especially with sharding on `user_id` for `posts` and `follows` tables, and proper indexing).
+### Query 2: Fetch a specific post and its replies
+**Description:** Retrieve a single post's details, its media, and the most recent comments/replies.
+```sql
+SELECT
+    p.id, p.user_id, p.content, p.created_at, u.username, u.display_name, u.profile_picture_url,
+    (SELECT ARRAY_AGG(mi.file_url) FROM media_items mi WHERE mi.id = ANY(p.media_ids)) AS media_urls,
+    (SELECT COUNT(*) FROM likes WHERE post_id = p.id) AS like_count,
+    (SELECT COUNT(*) FROM posts WHERE reply_to_post_id = p.id) AS reply_count
+FROM
+    posts p
+JOIN
+    users u ON p.user_id = u.id
+WHERE
+    p.id = 'specific_post_uuid';
+-- To get replies:
+SELECT
+    pr.id, pr.user_id, pr.content, pr.created_at, ur.username, ur.display_name, ur.profile_picture_url
+FROM
+    posts pr
+JOIN
+    users ur ON pr.user_id = ur.id
+WHERE
+    pr.reply_to_post_id = 'specific_post_uuid'
+ORDER BY
+    pr.created_at ASC -- Display replies chronologically
+LIMIT 20;
+```
+**Expected Performance:** &lt;20ms (with caching for hot posts).
+### Query 3: Get a user's followers or following list
+**Description:** Retrieve the list of users that follow a given user, or users that a given user follows.
+```sql
+-- Neo4j (preferred for graph traversal):
+-- Get followers:
+MATCH (u:User {userId: 'target_user_uuid'})&lt;-[:FOLLOWS]-(follower:User)
+RETURN follower.userId AS follower_id
+LIMIT 50;
+-- Get following:
+MATCH (u:User {userId: 'target_user_uuid'})-[:FOLLOWS]-&gt;(following:User)
+RETURN following.userId AS following_id
+LIMIT 50;
+-- PostgreSQL (if graph DB is not used, or for backup/initial import):
+-- This assumes a 'follows' table in PostgreSQL:
+-- CREATE TABLE follows (
+--     follower_user_id UUID NOT NULL REFERENCES users(id) ON DELETE CASCADE,
+--     following_user_id UUID NOT NULL REFERENCES users(id) ON DELETE CASCADE,
+--     created_at TIMESTAMP WITH TIME ZONE DEFAULT NOW(),
+--     PRIMARY KEY (follower_user_id, following_user_id)
+-- );
+-- Indexes: idx_follows_follower_user_id (follower_user_id, created_at), idx_follows_following_user_id (following_user_id, created_at)
+-- Get followers (PostgreSQL):
+SELECT
+    u.id, u.username, u.display_name, u.profile_picture_url
+FROM
+    users u
+JOIN
+    follows f ON u.id = f.follower_user_id
+WHERE
+    f.following_user_id = 'target_user_uuid'
+ORDER BY
+    f.created_at DESC
+LIMIT 50;
+-- Get following (PostgreSQL):
+SELECT
+    u.id, u.username, u.display_name, u.profile_picture_url
+FROM
+    users u
+JOIN
+    follows f ON u.id = f.following_user_id
+WHERE
+    f.follower_user_id = 'target_user_uuid'
+ORDER BY
+    f.created_at DESC
+LIMIT 50;
+```
+**Expected Performance:**
+- Neo4j: &lt;10ms for traversing relationships.
+- PostgreSQL: &lt;30ms (with proper indexes).
+### Query 4: Search posts by hashtag
+**Description:** Find posts containing a specific hashtag.
+```sql
+SELECT
+    p.id, p.user_id, p.content, p.created_at, u.username, u.display_name, u.profile_picture_url
+FROM
+    posts p
+JOIN
+    post_hashtags ph ON p.id = ph.post_id
+JOIN
+    hashtags h ON ph.hashtag_id = h.id
+JOIN
+    users u ON p.user_id = u.id
+WHERE
+    h.tag = 'trending_hashtag'
+ORDER BY
+    p.created_at DESC
+LIMIT 50;
+```
+**Expected Performance:** &lt;50ms (will likely be offloaded to a dedicated search engine like Elasticsearch for real-time, full-text search, but this is the underlying RDBMS query).
+---
+# 📈 Scaling Strategy
+## Sharding Approach (PostgreSQL)
+- **Shard Key (users, posts, user_timelines):** `user_id`
+- **Strategy:** Hash-based sharding.
+- **Reasoning:** User-centric data (user profiles, their posts, their timelines) can be co-located on the same shard based on `user_id`. This significantly improves performance for user-specific queries (e.g., fetching a user's profile, their posts, their timeline) by reducing cross-shard joins. A consistent hashing algorithm ensures even data distribution across shards. For `posts`, while `user_id` is a good shard key, `post_id` (range-based or hash-based) could also be considered for global distribution if hot spots are extreme, though `user_id` is often preferred for social graphs. The `likes` and `notifications` tables would also be sharded by the `user_id` of the user performing the action or receiving the notification, respectively.
+## Read Replicas (PostgreSQL)
+- **Number needed:** 5-10+ per shard (depending on read-to-write ratio and traffic patterns).
+- **Replication lag tolerance:** &lt;100ms for most user-facing data; &lt;10ms for critical, real-time data where strong consistency is required (e.g., user profiles after update). Asynchronous replication is acceptable for most reads, synchronous or quorum-based for highly consistent data.
+## Scaling Strategy (Redis)
+- **Redis Cluster:** Use Redis Cluster for horizontal scaling and high availability. It shards data across multiple Redis nodes, allowing for massive scaling of timelines and caches.
+- **Dedicated Instances:** Separate Redis instances/clusters for different use cases (e.g., one for user sessions, one for timelines, one for general object caching) to isolate workloads.
+## Scaling Strategy (Neo4j)
+- **Causal Cluster:** Deploy Neo4j in a Causal Cluster configuration for high availability and read scaling. This provides a primary node for writes and multiple secondary nodes for read queries.
+- **JanusGraph with Cassandra/HBase:** For extreme scale and distributed graph processing, JanusGraph (an open-source graph database) can be used, leveraging highly scalable backend storage like Apache Cassandra or HBase.
+## Other Strategies
+- **Microservices Architecture:** Decompose the application into independent services (e.g., User Service, Post Service, Timeline Service, Notification Service) each with its optimized data access patterns.
+- **CDN for Media:** Use a Content Delivery Network (CDN) like Cloudflare or AWS CloudFront for serving user-uploaded media (images, videos) to reduce load on the primary storage and improve delivery speed globally.
+- **Asynchronous Processing:** Use message queues (e.g., Kafka) for tasks like fan-out to followers' timelines, notification delivery, media processing, and search indexing to decouple operations and prevent bottlenecks during peak loads.
+- **Search Engine:** Integrate with a dedicated search engine (e.g., Elasticsearch) for real-time full-text search on posts, users, and hashtags, offloading this complex workload from the RDBMS.
+---
+# 💾 Caching Layer
+## Cache Strategy (Redis)
+| Data Type | Cache | TTL | Invalidation |
+|-----------|-------|-----|--------------|
+| User sessions | Redis Hash/String | 24h (sliding expiration) | On logout, on password change, explicit API call |
+| User profiles | Redis Hash | 1h | On user profile update (publish event, invalidate cache) |
+| Post content (hot posts) | Redis Hash/String | 15m - 1h (adaptive) | On post update/delete/edit, on new like/comment (increment counters, invalidate full post details) |
+| User timelines (active) | Redis Sorted Set/List | 1-2h (recent entries) | On new post by followed user (fan-out write), on follow/unfollow (rebuild/update timeline), on post deletion |
+| Follower/Following counts | Redis Hash/String | 10m | On follow/unfollow (increment/decrement counter) |
+| Trending Hashtags | Redis Sorted Set | 5m | Recalculated periodically by analytics service (e.g., Kafka Streams, Spark) |
+| Rate Limits | Redis Counters | 1m - 1h | Automatically expires |
+---
+# 🔐 Security &amp; Backup
+## Data Protection
+- **Encryption at rest:** All data stored in PostgreSQL, Redis persistence files, and object storage (S3) will be encrypted using AES-256. This is typically managed by the cloud provider (e.g., AWS EBS encryption, S3 encryption) or database-level encryption.
+- **Encryption in transit:** All communication between application components, databases, and client applications will use TLS 1.3 to ensure data confidentiality and integrity. This includes internal microservice communication, database connections, and API endpoints.
+- **Access Control:** Implement strict Role-Based Access Control (RBAC) for database access, with least privilege principles. Separate service accounts for different microservices, each with minimal required permissions.
+- **Authentication:** Strong authentication mechanisms (e.g., OAuth 2.0, JWTs) for API access. Store hashed passwords using strong, adaptive algorithms (e.g., bcrypt) with appropriate salting.
+## Backup Strategy
+- **Full backup (PostgreSQL):** Daily, stored off-site (e.g., S3 Glacier) with multi-region replication.
+- **Point-in-time recovery (PostgreSQL):** Continuous archiving of Write-Ahead Logs (WAL) to enable recovery to any specific point in time, crucial for disaster recovery and accidental data loss.
+- **Snapshot backups (Redis):** Regular RDB snapshots (e.g., every 4 hours) for data durability, combined with AOF (Append-Only File) for higher durability if needed, especially for timelines.
+- **Neo4j Backups:** Regular online backups (e.g., daily) using `neo4j-admin dump` or cloud provider snapshots for managed instances.
+- **Retention:** 30 days for full backups and PITR logs, with longer archival for compliance data if required (e.g., 7 years for certain user data).
+- **Testing:** Regular testing of backup restoration procedures to ensure data recoverability.
+---
+# 🚀 Migration Plan
+## Phase 1: Initial Setup (Greenfield Deployment)
+1.  **Infrastructure Provisioning:** Set up cloud infrastructure (VPCs, subnets, security groups, load balancers, CDN).
+2.  **Database Instance Deployment:**
+    *   Deploy PostgreSQL instances (primary and read replicas per shard). Configure sharding solution (e.g., CitusData) or prepare for application-level sharding.
+    *   Deploy Redis Cluster instances.
+    *   Deploy Neo4j Causal Cluster instances.
+3.  **Schema Creation:** Execute `CREATE TABLE` and `CREATE INDEX` SQL scripts for PostgreSQL. Configure Neo4j node labels and relationship types.
+4.  **Configuration:** Set up database parameters, replication, monitoring, alerting, and backup schedules for all databases.
+5.  **Service Integration:** Develop and deploy initial microservices (User, Post, Social Graph, Media) that interact with the new database instances.
+6.  **Basic Testing:** Conduct unit, integration, and initial load testing on individual services and database interactions.
+## Phase 2: Data Migration (If applicable, from an existing system)
+*(Assuming a greenfield deployment based on the prompt, this phase would be skipped or minimal. If migrating from a legacy system, the following would apply:)*
+1.  **Data Extraction:** Extract data from the legacy system (e.g., user profiles, posts, relationships) into an intermediate format (CSV, JSON).
+2.  **Data Transformation:** Cleanse, normalize, and transform data to fit the new schema. Handle password hashing, UUID generation, and media URL mapping.
+3.  **Data Loading:**
+    *   **PostgreSQL:** Use `COPY` command or bulk insert tools for efficient loading of `users`, `posts`, `likes`, `media_items`, `hashtags`, `post_hashtags`, `notifications`.
+    *   **Neo4j:** Use `neo4j-admin import` tool for bulk loading `User` nodes and `:FOLLOWS` relationships.
+    *   **Redis:** Pre-populate hot caches (e.g., popular posts, initial timelines for highly followed users) if feasible.
+4.  **Validation:** Implement comprehensive validation steps to ensure data integrity and completeness after migration. Compare record counts, sample data, and run critical queries.
+5.  **Parallel Run (Optional):** Run the new system in parallel with the old for a period, redirecting a small percentage of traffic to the new system, to compare performance and identify issues without impacting all users.
+## Phase 3: Go-Live &amp; Optimization
+1.  **Traffic Cutover:** Gradually shift production traffic to the new system, monitoring performance and error rates closely. Implement a robust rollback plan.
+2.  **Performance Monitoring &amp; Tuning:** Continuously monitor database performance (query times, resource utilization, replication lag). Optimize slow queries, adjust indexes, and fine-tune database configurations based on real-world load.
+3.  **Scaling Automation:** Implement auto-scaling policies for compute and database resources to dynamically adjust to traffic fluctuations.
+4.  **Disaster Recovery Drills:** Regularly perform disaster recovery drills to ensure the system can withstand failures and recover data effectively.
+5.  **Feature Iteration:** Begin development and deployment of new features, leveraging the scalable architecture.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>database</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[-0.07248371839523315, -0.077307790517807, -0.019012657925486565, 0.04961797967553139, -0.061470162123441696, 0.019895682111382484, 0.00789977703243494, 0.030207453295588493, 0.008435133844614029, 0.026793934404850006, 0.06579777598381042, 0.03548774868249893, 0.11045344918966293, 0.06495476514101028, -0.009966914542019367, 0.078212209045887, 0.015919949859380722, -0.05968290567398071, -0.0020364976953715086, -0.07748443633317947, -0.09206753969192505, -0.013841649517416954, 0.010209877043962479, 0.05666770786046982, 0.046825211495161057, 0.009695835411548615, -0.04859787970781326, -0.04963870346546173, 0.007197695318609476, 0.045995794236660004, 0.04010247811675072, -0.0001141668253694661, 0.013199484907090664, 0.035597145557403564, -0.12237650156021118, 0.0037606542464345694, -0.0653955340385437, 0.004446462262421846, -0.035244446247816086, -0.015487688593566418, -0.03238712251186371, -0.05527042597532272, 0.027677103877067566, 0.061243392527103424, -0.011708504520356655, 0.08606846630573273, -0.0005280015175230801, 0.041058365255594254, 0.026754366233944893, 0.06382668763399124, -0.017079852521419525, -0.042064253240823746, -0.0337316133081913, 0.044837284833192825, 0.04373087361454964, -0.022816987708210945, -0.10191214084625244, 0.07396453619003296, 0.004306897986680269, -0.03880312293767929, 0.10404861718416214, -0.12177147716283798, 0.00708564929664135, 0.007492261007428169, 0.06469503790140152, -0.04254815727472305, -0.04772070050239563, 0.09445641934871674, 0.007485468406230211, 0.029872369021177292, 0.014724538661539555, 0.054000914096832275, -0.06329159438610077, 0.07444696873426437, -0.012960617430508137, 0.009250080212950706, -0.00828459020704031, -0.10910604149103165, -0.04125078022480011, 0.014459173195064068, -0.038680773228406906, 0.012440785765647888, -0.022392254322767258, -0.029079483821988106, 0.03113437630236149, -0.08798689395189285, -0.0014689607778564095, -0.021893441677093506, -0.08260810375213623, 0.058926019817590714, -0.06763865798711777, 0.0895976647734642, -0.03431086987257004, -0.061673544347286224, -0.01872286945581436, 0.057127952575683594, 0.03258070349693298, -0.050998397171497345, -0.03121010772883892, 0.06571027636528015, -0.04238267242908478, 0.08496984094381332, 0.010787395760416985, -0.0002831566089298576, 0.07088170200586319, 0.10971946269273758, 0.016017839312553406, 0.01928361877799034, 0.07587642222642899, 0.00852933619171381, -0.1244901716709137, 0.05902166664600372, -0.09016063064336777, -0.06346257776021957, 0.03972703590989113, -0.06016606092453003, 0.0083886394277215, 0.022485755383968353, 0.12883689999580383, 0.0031504060607403517, 0.037636663764715195, 0.005380712449550629, -0.019207701086997986, -0.0374358631670475, 0.032359570264816284, 0.09614156931638718, -0.07010486721992493, -2.8094211669719494e-34, 0.07761094719171524, -0.009675844572484493, 0.003950370475649834, 0.03858375921845436, -0.06175599619746208, 0.05835220590233803, -0.05418512225151062, -0.047485701739788055, -0.05651642382144928, -0.11000452190637589, -0.048810794949531555, 0.0200006365776062, -0.019788946956396103, 0.09878738969564438, 0.08692914992570877, -0.10817548632621765, 0.08802565932273865, -0.03299625962972641, 0.07397918403148651, -0.032232873141765594, 0.01442294754087925, -0.015481545589864254, -0.05343162268400192, 0.059548601508140564, 0.05577152594923973, -0.09068563580513, 0.07079087197780609, -0.058913856744766235, 0.05402939021587372, 0.00822517927736044, -0.002510232850909233, 0.06543610244989395, -0.08915002644062042, -0.020298447459936142, 0.05468747764825821, 0.02267472818493843, 0.0003691315359901637, -0.016725895926356316, 0.06684493273496628, -0.05693577229976654, 0.026952488347887993, 0.056737493723630905, -0.08640788495540619, 0.007741573732346296, -0.05272804573178291, 0.14442947506904602, -0.006888938136398792, 0.01976011134684086, -0.00868268497288227, -0.008195439353585243, 0.04436582326889038, -0.0212238896638155, -0.013319901190698147, 0.10967271029949188, -0.03864477574825287, 0.0017788232071325183, 0.017590077593922615, 0.03510386124253273, 0.05815139412879944, -0.013957115821540356, 0.02631782554090023, 0.012684703804552555, 0.05112104490399361, -0.049675945192575455, 0.010566086508333683, 0.07472780346870422, -0.03271162509918213, -0.004212968051433563, 0.08105894178152084, 0.009900588542222977, 0.012125276029109955, 0.10555929690599442, -0.05655745416879654, -0.04265137016773224, -0.049996260553598404, 0.054343122988939285, -0.06833507865667343, -0.039171744138002396, -0.06300584226846695, -0.0289953351020813, 0.0025390186347067356, -0.09428156167268753, -0.02081548608839512, 0.028201358392834663, 0.007045472040772438, -0.007606104481965303, 0.03486146032810211, -0.06121336668729782, 0.009803992696106434, 0.02390270121395588, -0.04840615391731262, 0.013697255402803421, 0.16785919666290283, 0.04610692337155342, -0.05618155375123024, 2.2893231863553994e-33, -0.10821560025215149, 0.02771146409213543, 0.00808196235448122, -0.018924690783023834, 0.0037825407925993204, 0.012310473248362541, -0.052720725536346436, 0.0038986308500170708, -0.03216800093650818, 0.07370585203170776, -0.043085213750600815, -0.10661949962377548, -0.0023885336704552174, -0.02014552429318428, 0.028377972543239594, 0.047745365649461746, 0.026516549289226532, 0.013758542016148567, -0.048842903226614, 0.006471110507845879, -0.016066696494817734, 0.04865841194987297, -0.047597311437129974, 0.015720278024673462, 0.06034872308373451, 0.034551989287137985, -0.019000617787241936, -0.007776866666972637, -0.026636257767677307, 0.02701583318412304, -0.001273195375688374, -0.036214135587215424, 0.0172563623636961, -0.036619141697883606, -0.05168401077389717, 0.026540018618106842, -0.06373998522758484, -0.013875031843781471, -0.0021174128632992506, -0.06643369048833847, 0.029012229293584824, -0.012269271537661552, -0.029369276016950607, 0.05630297586321831, -0.0917622521519661, 0.018671199679374695, -0.05429495871067047, 0.062310002744197845, -0.06108549237251282, -0.0031748695764690638, 0.029117437079548836, -0.01739005371928215, 0.05977414548397064, -0.03442276641726494, -0.01617487147450447, -0.0634334534406662, 0.047283995896577835, 0.06917247176170349, -0.004289317410439253, -0.010515877977013588, 0.015450785867869854, 0.0210734773427248, -0.035041265189647675, 0.03792361542582512, 0.026015471667051315, -0.08944480121135712, 0.013991471379995346, -0.03635035455226898, -0.02367115579545498, 0.04399237781763077, 0.04994780570268631, 0.06963492929935455, -0.027437428012490273, 0.018844472244381905, 0.12736734747886658, -0.036420103162527084, 0.05277194827795029, 0.059838518500328064, -0.0018817281816154718, 0.01478458009660244, -0.04659745842218399, 0.04462344944477081, 0.028633257374167442, -0.025396678596735, 0.03277868032455444, -0.07910553365945816, -0.026304304599761963, 0.023970110341906548, -0.007589483167976141, 0.015148894861340523, 0.039028748869895935, -0.00264435145072639, -0.032057203352451324, -0.006424314808100462, 0.024567507207393646, -1.4218629829088059e-08, -0.10400287061929703, -0.08827321231365204, -0.04701332002878189, 0.1025988757610321, 0.0370902493596077, 0.05982162058353424, 0.030948063358664513, 0.06804680824279785, -0.0038918587379157543, 0.059402406215667725, 0.007192332297563553, 0.03905598074197769, -0.004143462982028723, 0.013062495738267899, -0.02392081916332245, -0.0838119238615036, 0.024314453825354576, -0.08084314316511154, -0.012208887375891209, 0.03544820472598076, -0.035823654383420944, -0.0342729315161705, -0.042623087763786316, 0.03993983566761017, 0.054051097482442856, -0.02436843328177929, -0.04175730422139168, 0.03395598381757736, -0.02274053357541561, 0.02265983633697033, -0.02682833932340145, -0.0415317639708519, 0.013485811650753021, -0.06949832290410995, 0.007449722848832607, 0.07630898803472519, -0.013568139635026455, 0.0006997458986006677, 0.012670442461967468, -0.045646172016859055, 0.026150740683078766, -0.014085228554904461, 0.11107033491134644, -0.01678735949099064, -0.04217589646577835, 0.0392410047352314, -0.006486900616437197, -0.11420087516307831, 0.011644391342997551, -0.028712986037135124, -0.02832847088575363, -0.02393297478556633, -0.030595585703849792, -0.006513900123536587, 0.030504200607538223, 0.023174460977315903, 0.005340657662600279, 0.08157447725534439, 0.05122091621160507, 0.0036170370876789093, 0.0905856192111969, 0.02742813341319561, -0.013607987202703953, 0.029052698984742165]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-01-02T17:37:45.599796</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
